--- a/output/aggregate_tables/Analysis Group Statistics/Area 34_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 34_summary.xlsx
@@ -1428,17 +1428,39 @@
       <c r="M4" s="4" t="n">
         <v>52.63157894736842</v>
       </c>
-      <c r="N4" s="4" t="n"/>
-      <c r="O4" s="4" t="n"/>
-      <c r="P4" s="4" t="n"/>
-      <c r="Q4" s="4" t="n"/>
-      <c r="R4" s="4" t="n"/>
-      <c r="S4" s="4" t="n"/>
-      <c r="T4" s="4" t="n"/>
-      <c r="U4" s="4" t="n"/>
-      <c r="V4" s="4" t="n"/>
-      <c r="W4" s="4" t="n"/>
-      <c r="X4" s="4" t="n"/>
+      <c r="N4" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="O4" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="P4" s="3" t="n">
+        <v>15</v>
+      </c>
+      <c r="Q4" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="R4" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="S4" s="3" t="n">
+        <v>20</v>
+      </c>
+      <c r="T4" s="4" t="n">
+        <v>10.25641025641026</v>
+      </c>
+      <c r="U4" s="4" t="n">
+        <v>38.46153846153847</v>
+      </c>
+      <c r="V4" s="4" t="n">
+        <v>51.28205128205128</v>
+      </c>
+      <c r="W4" s="4" t="n">
+        <v>48.71794871794872</v>
+      </c>
+      <c r="X4" s="4" t="n">
+        <v>51.28205128205128</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1557,34 +1579,34 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.201617535145328</v>
+        <v>1.20164688127621</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.9648550694751906</v>
+        <v>1.009348869866107</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.167468875381482</v>
+        <v>1.159907192933769</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.166472604620518</v>
+        <v>2.210995751142317</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>1.167468875381482</v>
+        <v>1.159907192933769</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>36.04195041673638</v>
+        <v>35.64762620614589</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>28.94037208699331</v>
+        <v>29.94298223981509</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>35.01767749627032</v>
+        <v>34.40939155403901</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>64.98232250372969</v>
+        <v>65.59060844596098</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>35.01767749627032</v>
+        <v>34.40939155403901</v>
       </c>
     </row>
   </sheetData>
@@ -1702,34 +1724,34 @@
         <v>1</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.174788887361778</v>
+        <v>1.159986489797008</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.9194964399751906</v>
+        <v>0.9269108811269765</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.9374097866336738</v>
+        <v>0.9300650020339815</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>2.094285327336968</v>
+        <v>2.086897370923985</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>0.9374097866336738</v>
+        <v>0.9300650020339815</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>38.7502319065041</v>
+        <v>38.44882190757007</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>30.32944954583235</v>
+        <v>30.72331592316782</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>30.92031854766354</v>
+        <v>30.82786216926212</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>69.07968145233646</v>
+        <v>69.17213783073788</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>30.92031854766354</v>
+        <v>30.82786216926212</v>
       </c>
     </row>
     <row r="5">
@@ -1737,34 +1759,34 @@
         <v>2</v>
       </c>
       <c r="B5" s="12" t="n">
-        <v>0.02682864778354978</v>
+        <v>0.04166039147920195</v>
       </c>
       <c r="C5" s="12" t="n">
-        <v>0.0453586295</v>
+        <v>0.08243798873913043</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.2300590887478081</v>
-      </c>
-      <c r="E5" s="12" t="n">
-        <v>0.07218727728354978</v>
+        <v>0.229842190899788</v>
+      </c>
+      <c r="E5" s="4" t="n">
+        <v>0.1240983802183324</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>0.2300590887478081</v>
+        <v>0.229842190899788</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>8.876416989167813</v>
+        <v>11.77044817088761</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>15.00717116820325</v>
+        <v>23.29147757170184</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>76.11641184262893</v>
+        <v>64.93807425741055</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>23.88358815737107</v>
+        <v>35.06192574258945</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>76.11641184262893</v>
+        <v>64.93807425741055</v>
       </c>
     </row>
     <row r="6">
@@ -1774,34 +1796,34 @@
         </is>
       </c>
       <c r="B6" s="4" t="n">
-        <v>1.201617535145328</v>
+        <v>1.20164688127621</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>0.9648550694751906</v>
+        <v>1.009348869866107</v>
       </c>
       <c r="D6" s="4" t="n">
-        <v>1.167468875381482</v>
+        <v>1.159907192933769</v>
       </c>
       <c r="E6" s="4" t="n">
-        <v>2.166472604620518</v>
+        <v>2.210995751142317</v>
       </c>
       <c r="F6" s="4" t="n">
-        <v>1.167468875381482</v>
+        <v>1.159907192933769</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>36.04195041673637</v>
+        <v>35.64762620614588</v>
       </c>
       <c r="H6" s="4" t="n">
-        <v>28.94037208699331</v>
+        <v>29.9429822398151</v>
       </c>
       <c r="I6" s="4" t="n">
-        <v>35.01767749627032</v>
+        <v>34.40939155403901</v>
       </c>
       <c r="J6" s="4" t="n">
-        <v>64.98232250372968</v>
+        <v>65.59060844596098</v>
       </c>
       <c r="K6" s="4" t="n">
-        <v>35.01767749627032</v>
+        <v>34.40939155403901</v>
       </c>
     </row>
   </sheetData>
@@ -1921,19 +1943,19 @@
         </is>
       </c>
       <c r="B4" s="4" t="n">
-        <v>36.04195041673638</v>
+        <v>35.64762620614589</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>28.94037208699331</v>
+        <v>29.94298223981509</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>35.01767749627032</v>
+        <v>34.40939155403901</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>64.98232250372969</v>
+        <v>65.59060844596098</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>35.01767749627032</v>
+        <v>34.40939155403901</v>
       </c>
       <c r="G4" s="3" t="n">
         <v>0</v>

--- a/output/aggregate_tables/Analysis Group Statistics/Area 34_summary.xlsx
+++ b/output/aggregate_tables/Analysis Group Statistics/Area 34_summary.xlsx
@@ -1961,16 +1961,16 @@
         <v>0</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>36.59405010464138</v>
+        <v>36.82201188022926</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>63.40594989535864</v>
+        <v>63.17798811977073</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>36.59405010464138</v>
+        <v>36.82201188022926</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>63.40594989535864</v>
+        <v>63.17798811977073</v>
       </c>
     </row>
   </sheetData>
